--- a/C4RM_Class_02.xlsx
+++ b/C4RM_Class_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/AA/BB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Library/CloudStorage/GoogleDrive-davethemovie@gmail.com/My Drive/Columbia/Classes/C4RM/Classfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B788E6B-D88D-F443-A3F9-8C2629F56771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8BCDDA-9B9B-D144-877C-B9E1D5DBD472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15820" firstSheet="4" activeTab="20" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15820" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,15 @@
     <sheet name="qDataTypes1" sheetId="15" state="hidden" r:id="rId18"/>
     <sheet name="qDataTypes2" sheetId="30" state="hidden" r:id="rId19"/>
     <sheet name="qFizzBuzz" sheetId="16" r:id="rId20"/>
-    <sheet name="SQL_Text" sheetId="42" r:id="rId21"/>
-    <sheet name="Appendix " sheetId="37" r:id="rId22"/>
-    <sheet name="DataObj1" sheetId="32" r:id="rId23"/>
-    <sheet name="DataObj2" sheetId="33" r:id="rId24"/>
-    <sheet name="DataObj3" sheetId="34" r:id="rId25"/>
-    <sheet name="DataObj4" sheetId="35" r:id="rId26"/>
-    <sheet name="DataObj5" sheetId="36" r:id="rId27"/>
+    <sheet name="Appendix " sheetId="37" r:id="rId21"/>
+    <sheet name="DataObj1" sheetId="32" r:id="rId22"/>
+    <sheet name="DataObj2" sheetId="33" r:id="rId23"/>
+    <sheet name="DataObj3" sheetId="34" r:id="rId24"/>
+    <sheet name="DataObj4" sheetId="35" r:id="rId25"/>
+    <sheet name="DataObj5" sheetId="36" r:id="rId26"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Office1_Filter!$B$2:$E$869</definedName>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="159">
   <si>
     <t>ytm</t>
   </si>
@@ -549,9 +548,6 @@
   </si>
   <si>
     <t>The size of the array equals the last index minus the first + 1.</t>
-  </si>
-  <si>
-    <t>SQLite Online</t>
   </si>
 </sst>
 </file>
@@ -1675,257 +1671,6 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6E816C-067F-1043-B968-55AAB25CAADA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="850900" y="1041400"/>
-          <a:ext cx="3302000" cy="2882900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>SELECT length('Elephant')</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>SELECT upper('Elephant')</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>SELECT lower('Elephant')</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>SELECT substr('Elephant',4,5)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>SELECT REPLACE('Hello, World!', 'World', 'SQLite');</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>279400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49CE37A7-6C1B-AF43-81E6-DDC0D468E43D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="825500" y="4457700"/>
-          <a:ext cx="3302000" cy="3365500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Homework</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Return last 3 letters of 'highway'</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Save the work in a sql file named text.sql</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3459,7 +3204,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Today"/>
@@ -3528,9 +3273,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3568,7 +3313,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3674,7 +3419,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3816,7 +3561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3827,7 +3572,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -29737,99 +29482,99 @@
       </c>
       <c r="C39" s="14">
         <f ca="1">C38+_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.54118865057543009</v>
+        <v>1.5940910141446125</v>
       </c>
       <c r="D39" s="14">
         <f t="shared" ref="D39:Z48" ca="1" si="0">D38+_xlfn.NORM.S.INV(RAND())</f>
-        <v>-0.14687294914153171</v>
+        <v>5.3468247887804785E-2</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.80998640200318206</v>
+        <v>-0.83310184131023857</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45634107892873144</v>
+        <v>0.22490529432299777</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56893814678843924</v>
+        <v>-1.2994988696076992</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84755866666074076</v>
+        <v>-0.31358984631442355</v>
       </c>
       <c r="I39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3377815782793838</v>
+        <v>1.8560998517243623</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4115356316516228</v>
+        <v>-0.38908123051245069</v>
       </c>
       <c r="K39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69152745422677986</v>
+        <v>-1.0186061744068668</v>
       </c>
       <c r="L39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58148852301640641</v>
+        <v>-1.1999871313739841</v>
       </c>
       <c r="M39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.2790910648799922E-2</v>
+        <v>0.5021375832652204</v>
       </c>
       <c r="N39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4798186371587168</v>
+        <v>-0.73436890401963095</v>
       </c>
       <c r="O39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34774575123823015</v>
+        <v>-1.4915006326299645</v>
       </c>
       <c r="P39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3680661846338902</v>
+        <v>-0.88612365270778726</v>
       </c>
       <c r="Q39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2493504894931649</v>
+        <v>0.54870355945239446</v>
       </c>
       <c r="R39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9031711346441996E-2</v>
+        <v>-2.054138482229074</v>
       </c>
       <c r="S39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.15365219989918455</v>
+        <v>-0.12091523001312855</v>
       </c>
       <c r="T39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0118311068718615</v>
+        <v>0.49734152254579728</v>
       </c>
       <c r="U39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5994908298420829</v>
+        <v>-1.351453532371659</v>
       </c>
       <c r="V39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.89615390533834094</v>
+        <v>5.7038796328757073E-2</v>
       </c>
       <c r="W39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94003175244911197</v>
+        <v>2.1973349461480067</v>
       </c>
       <c r="X39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29984475135292488</v>
+        <v>0.64620719173029328</v>
       </c>
       <c r="Y39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3367476708062764</v>
+        <v>0.12451632748828306</v>
       </c>
       <c r="Z39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54916406803318474</v>
+        <v>0.38950729674568685</v>
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
@@ -29838,99 +29583,99 @@
       </c>
       <c r="C40" s="14">
         <f t="shared" ref="C40:C48" ca="1" si="1">C39+_xlfn.NORM.S.INV(RAND())</f>
-        <v>1.3229609276888259</v>
+        <v>1.238747078561772</v>
       </c>
       <c r="D40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31413594150092317</v>
+        <v>-8.3290042197736183E-2</v>
       </c>
       <c r="E40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23943989113715958</v>
+        <v>-1.3656740708351902</v>
       </c>
       <c r="F40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24088102789920207</v>
+        <v>0.16931763023626878</v>
       </c>
       <c r="G40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2842972432558737E-2</v>
+        <v>0.49099459313547134</v>
       </c>
       <c r="H40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28208822551265578</v>
+        <v>0.50851507905073634</v>
       </c>
       <c r="I40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0767705837351542</v>
+        <v>1.1719779297341169</v>
       </c>
       <c r="J40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8380525693640251</v>
+        <v>0.44138202866000698</v>
       </c>
       <c r="K40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19209014549884884</v>
+        <v>-2.5416617754222965</v>
       </c>
       <c r="L40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.268255450795496</v>
+        <v>-0.11671929436268957</v>
       </c>
       <c r="M40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3044610533373614</v>
+        <v>2.9961343817617903</v>
       </c>
       <c r="N40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2842393503852947</v>
+        <v>-1.5184122066692169</v>
       </c>
       <c r="O40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23856844193939408</v>
+        <v>-1.4312642032604419</v>
       </c>
       <c r="P40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.628932133364597</v>
+        <v>-5.0784583330497846E-2</v>
       </c>
       <c r="Q40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5176093038959737</v>
+        <v>-0.37467602131776279</v>
       </c>
       <c r="R40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8308301603208765</v>
+        <v>-2.206907209325804</v>
       </c>
       <c r="S40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2212921121621001</v>
+        <v>0.24575153798391519</v>
       </c>
       <c r="T40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3551024855169538</v>
+        <v>6.5675123777701794E-2</v>
       </c>
       <c r="U40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6449326036475651</v>
+        <v>-1.2303580701644119</v>
       </c>
       <c r="V40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.387130805009289E-2</v>
+        <v>1.3280455881487414</v>
       </c>
       <c r="W40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9877322689833825</v>
+        <v>2.0108708117012801</v>
       </c>
       <c r="X40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32825585551953024</v>
+        <v>8.4589454014341925E-2</v>
       </c>
       <c r="Y40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76842408664583073</v>
+        <v>-0.40834231909776492</v>
       </c>
       <c r="Z40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83921815202298</v>
+        <v>0.15457716112818348</v>
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
@@ -29939,99 +29684,99 @@
       </c>
       <c r="C41" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5369562829378438</v>
+        <v>1.2746223721825236</v>
       </c>
       <c r="D41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22487274343380392</v>
+        <v>-0.36623716532081491</v>
       </c>
       <c r="E41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95415305813830686</v>
+        <v>-2.4863542123878171</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59564642729284056</v>
+        <v>0.10502882842372288</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2835593552821424E-2</v>
+        <v>0.21040077424516312</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0673544673599251</v>
+        <v>0.89331978521198618</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23461307131015885</v>
+        <v>0.55474128454306548</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3268398441944598</v>
+        <v>-2.0422219129550276</v>
       </c>
       <c r="K41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52524077193579277</v>
+        <v>-4.8786330159360194</v>
       </c>
       <c r="L41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8244027388847464</v>
+        <v>-0.48478593001429426</v>
       </c>
       <c r="M41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88761619991390461</v>
+        <v>4.2715493940269544</v>
       </c>
       <c r="N41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2815943863410189</v>
+        <v>-1.4793267483791304</v>
       </c>
       <c r="O41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31016548279571737</v>
+        <v>-0.10959957215222738</v>
       </c>
       <c r="P41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1936974456556291</v>
+        <v>0.93749429079940483</v>
       </c>
       <c r="Q41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5790950732575728</v>
+        <v>0.66600659090224312</v>
       </c>
       <c r="R41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2286674802839839</v>
+        <v>-4.2873290501672976</v>
       </c>
       <c r="S41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.393633043118196</v>
+        <v>3.0889221952136281</v>
       </c>
       <c r="T41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9167641530991664</v>
+        <v>-0.41062730132727443</v>
       </c>
       <c r="U41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.22522499645526</v>
+        <v>-0.59114339601175026</v>
       </c>
       <c r="V41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1415416979459949</v>
+        <v>1.6209435436338806</v>
       </c>
       <c r="W41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2466080012651175</v>
+        <v>1.1546662856875956</v>
       </c>
       <c r="X41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57458786159640929</v>
+        <v>-0.89836982209079064</v>
       </c>
       <c r="Y41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68725346877745108</v>
+        <v>0.68346364065701692</v>
       </c>
       <c r="Z41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24319498943612206</v>
+        <v>1.5242831183075758</v>
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
@@ -30040,99 +29785,99 @@
       </c>
       <c r="C42" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5865394251493161</v>
+        <v>-0.57380435943061925</v>
       </c>
       <c r="D42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7418727780241845</v>
+        <v>-0.57224542013566948</v>
       </c>
       <c r="E42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.15056931766976311</v>
+        <v>-3.9238655327926679</v>
       </c>
       <c r="F42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8316769761778757</v>
+        <v>-1.0031946975451878</v>
       </c>
       <c r="G42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2079793822379274</v>
+        <v>0.96540276452604323</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.547312507118624</v>
+        <v>1.8424713445589882</v>
       </c>
       <c r="I42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1546654699903855</v>
+        <v>0.17909119405875285</v>
       </c>
       <c r="J42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8843707255308733</v>
+        <v>2.9545436426329896E-2</v>
       </c>
       <c r="K42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1184610757509665</v>
+        <v>-5.743082218872571</v>
       </c>
       <c r="L42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5652455333442505</v>
+        <v>-0.48967404924301522</v>
       </c>
       <c r="M42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4196498955596359</v>
+        <v>2.3719097822945123</v>
       </c>
       <c r="N42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3251308403911208E-2</v>
+        <v>-2.0033505679951782</v>
       </c>
       <c r="O42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.4286763552677733E-2</v>
+        <v>1.9392187860957172E-2</v>
       </c>
       <c r="P42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0623173794825487E-2</v>
+        <v>2.5746963126552909</v>
       </c>
       <c r="Q42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.471647943187218</v>
+        <v>1.148473234030063</v>
       </c>
       <c r="R42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5033500274969873</v>
+        <v>-3.7336635848810142</v>
       </c>
       <c r="S42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0346113265723171</v>
+        <v>4.0019283081345121</v>
       </c>
       <c r="T42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8659403898417102</v>
+        <v>-6.1816731296288063E-4</v>
       </c>
       <c r="U42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7668819724192759</v>
+        <v>-1.0699257228337125</v>
       </c>
       <c r="V42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.1160818175769602</v>
+        <v>0.45798121489980526</v>
       </c>
       <c r="W42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52881356663372936</v>
+        <v>2.2525449594532203</v>
       </c>
       <c r="X42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.47081940556179</v>
+        <v>-0.56964334914063453</v>
       </c>
       <c r="Y42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.18578369081230062</v>
+        <v>-1.3747149128321605</v>
       </c>
       <c r="Z42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2169260680259934</v>
+        <v>1.117708544233303</v>
       </c>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
@@ -30141,99 +29886,99 @@
       </c>
       <c r="C43" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6394806658087187</v>
+        <v>1.1264900751372142</v>
       </c>
       <c r="D43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1095669797214645</v>
+        <v>-2.2651927849792854</v>
       </c>
       <c r="E43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.77612484422303663</v>
+        <v>-5.957446681710123</v>
       </c>
       <c r="F43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.36188250685908896</v>
+        <v>-1.0406584471817437</v>
       </c>
       <c r="G43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4858939857631865</v>
+        <v>1.1235337504308653</v>
       </c>
       <c r="H43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0130473591686826</v>
+        <v>2.6181014297460816</v>
       </c>
       <c r="I43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40154495093137615</v>
+        <v>-0.21325671302465793</v>
       </c>
       <c r="J43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1251265004296851</v>
+        <v>0.69174657205500734</v>
       </c>
       <c r="K43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.132363175956975</v>
+        <v>-7.0026335471495553</v>
       </c>
       <c r="L43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5326761314228428</v>
+        <v>-0.29939970278842803</v>
       </c>
       <c r="M43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78802865815758483</v>
+        <v>1.6381751994701803</v>
       </c>
       <c r="N43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23216890643168175</v>
+        <v>-1.8162730908842246</v>
       </c>
       <c r="O43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.167216094675755</v>
+        <v>1.005632395126226</v>
       </c>
       <c r="P43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22670600117912537</v>
+        <v>3.9055235181073669</v>
       </c>
       <c r="Q43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5777945500935382</v>
+        <v>-8.961302168830132E-2</v>
       </c>
       <c r="R43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.3029316146963299</v>
+        <v>-3.8634307560120891</v>
       </c>
       <c r="S43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1014270887757069</v>
+        <v>4.3005571500257735</v>
       </c>
       <c r="T43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9193257441675273</v>
+        <v>1.4322103476667869</v>
       </c>
       <c r="U43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1706477302855034</v>
+        <v>-1.2836003628241182</v>
       </c>
       <c r="V43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.6796522226729329</v>
+        <v>0.99492966659945314</v>
       </c>
       <c r="W43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4882736241946866</v>
+        <v>1.955871739919534</v>
       </c>
       <c r="X43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6308805656400369</v>
+        <v>-0.27231942171115026</v>
       </c>
       <c r="Y43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30826915684764811</v>
+        <v>-1.2590582790365858</v>
       </c>
       <c r="Z43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0355519370904431</v>
+        <v>1.3056401995368616</v>
       </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
@@ -30242,99 +29987,99 @@
       </c>
       <c r="C44" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5799549133322444</v>
+        <v>2.6991133225201027</v>
       </c>
       <c r="D44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79715188490667233</v>
+        <v>-2.4264368081270313</v>
       </c>
       <c r="E44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.21523774133390738</v>
+        <v>-4.4757756947362655</v>
       </c>
       <c r="F44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.80606224605857124</v>
+        <v>-1.9865375123209661</v>
       </c>
       <c r="G44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9737532715301112</v>
+        <v>0.63395446627469021</v>
       </c>
       <c r="H44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5989432293028512</v>
+        <v>1.1127071750688087</v>
       </c>
       <c r="I44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9370589249720223</v>
+        <v>-0.12580869167958206</v>
       </c>
       <c r="J44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4692490220851608</v>
+        <v>0.7449605588414927</v>
       </c>
       <c r="K44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1505049455156178</v>
+        <v>-8.1894468396852353</v>
       </c>
       <c r="L44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8743399771998392</v>
+        <v>0.31981830185499233</v>
       </c>
       <c r="M44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11382070745178963</v>
+        <v>2.1384530988900714</v>
       </c>
       <c r="N44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91061581688036208</v>
+        <v>-2.1636093439260922</v>
       </c>
       <c r="O44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33267378750314325</v>
+        <v>1.0465225305917236</v>
       </c>
       <c r="P44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1418114733497662</v>
+        <v>2.566458446967236</v>
       </c>
       <c r="Q44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1528746070222553</v>
+        <v>-1.0182567920562973</v>
       </c>
       <c r="R44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.46661435982586658</v>
+        <v>-4.2127590372223596</v>
       </c>
       <c r="S44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7477507968568788</v>
+        <v>2.8836887715336461</v>
       </c>
       <c r="T44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7460144782044882</v>
+        <v>2.2284662667810835</v>
       </c>
       <c r="U44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7518245705126421</v>
+        <v>-2.0576875636616498</v>
       </c>
       <c r="V44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4892698785014011</v>
+        <v>1.7058224472794359</v>
       </c>
       <c r="W44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2578463862014511</v>
+        <v>2.2375605858256837</v>
       </c>
       <c r="X44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8502205472198159</v>
+        <v>-0.23383924567993983</v>
       </c>
       <c r="Y44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3824270487311883</v>
+        <v>-0.90930641155114722</v>
       </c>
       <c r="Z44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6699851336476961E-3</v>
+        <v>1.3168207071080609</v>
       </c>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
@@ -30343,99 +30088,99 @@
       </c>
       <c r="C45" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7574359185487349</v>
+        <v>2.6685492585446031</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53699178694375749</v>
+        <v>-1.6473674274800505</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.855036787133566</v>
+        <v>-3.4380604547440399</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.60167054461826153</v>
+        <v>-3.882041199457182</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.692922347109965</v>
+        <v>0.33166789345758074</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7581882988414665</v>
+        <v>0.85071740328712186</v>
       </c>
       <c r="I45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6847925252135698</v>
+        <v>-6.5718416177949351E-3</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8372499054289353</v>
+        <v>-0.22405347988998747</v>
       </c>
       <c r="K45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14883292903077527</v>
+        <v>-9.9253780698325933</v>
       </c>
       <c r="L45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6139733923575807</v>
+        <v>-0.2297062300933142</v>
       </c>
       <c r="M45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3213344303987895</v>
+        <v>1.7462264027894423</v>
       </c>
       <c r="N45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1610555431910479</v>
+        <v>-2.9549702963599858</v>
       </c>
       <c r="O45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.9652803514804702E-2</v>
+        <v>-0.67915312224014834</v>
       </c>
       <c r="P45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8698691639235698</v>
+        <v>2.7379688310264068</v>
       </c>
       <c r="Q45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19528003526097359</v>
+        <v>-1.8868620514207488</v>
       </c>
       <c r="R45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14006345393591524</v>
+        <v>-4.5856326372778398</v>
       </c>
       <c r="S45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8515905894633158</v>
+        <v>3.0654068961437053</v>
       </c>
       <c r="T45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9454795012929491</v>
+        <v>1.7405655593906459</v>
       </c>
       <c r="U45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3287449465496723</v>
+        <v>-0.58744612928463602</v>
       </c>
       <c r="V45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7020439766916882</v>
+        <v>1.1350498129068793</v>
       </c>
       <c r="W45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.462735728729224</v>
+        <v>9.3935867159889774E-2</v>
       </c>
       <c r="X45" s="14">
         <f ca="1">X44+_xlfn.NORM.S.INV(RAND())</f>
-        <v>0.95190711816975215</v>
+        <v>1.6293291578062761</v>
       </c>
       <c r="Y45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88856731807435274</v>
+        <v>-1.2914730343965575</v>
       </c>
       <c r="Z45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.508855961037163</v>
+        <v>-1.2780135517036362</v>
       </c>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
@@ -30444,99 +30189,99 @@
       </c>
       <c r="C46" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5578316977982758</v>
+        <v>2.5867600027959443</v>
       </c>
       <c r="D46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91757814389768377</v>
+        <v>-1.1077333119939403</v>
       </c>
       <c r="E46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9298863793005414</v>
+        <v>-4.2669824207141307</v>
       </c>
       <c r="F46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9322774937541327</v>
+        <v>-5.1933612855419762</v>
       </c>
       <c r="G46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8818434717801411</v>
+        <v>1.2040612673806865</v>
       </c>
       <c r="H46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5039732446793161</v>
+        <v>0.98099458107216686</v>
       </c>
       <c r="I46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2838428435580194</v>
+        <v>0.63999018607007208</v>
       </c>
       <c r="J46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0386385638433477E-2</v>
+        <v>0.22806680840596721</v>
       </c>
       <c r="K46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.44522806592115394</v>
+        <v>-10.257712423932094</v>
       </c>
       <c r="L46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.6412373057680671</v>
+        <v>-5.5156758727075705E-2</v>
       </c>
       <c r="M46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2481405793850417</v>
+        <v>2.0612675423609836</v>
       </c>
       <c r="N46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98821938864163084</v>
+        <v>-4.0627156292959477</v>
       </c>
       <c r="O46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9271636643816857E-2</v>
+        <v>-0.12747696740948677</v>
       </c>
       <c r="P46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5116729553215222</v>
+        <v>1.9157404583475066</v>
       </c>
       <c r="Q46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44995774764534857</v>
+        <v>-2.0625818696188158</v>
       </c>
       <c r="R46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.78464118180567277</v>
+        <v>-4.4373934668174142</v>
       </c>
       <c r="S46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5015087012383113</v>
+        <v>2.3227244106769152</v>
       </c>
       <c r="T46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6441694946510861</v>
+        <v>1.7154491809520063</v>
       </c>
       <c r="U46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3055628228807645</v>
+        <v>0.83526963451901914</v>
       </c>
       <c r="V46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3012902895081133</v>
+        <v>2.3087862923997471</v>
       </c>
       <c r="W46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0599324883933425</v>
+        <v>2.5578871013832396</v>
       </c>
       <c r="X46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25235468305157327</v>
+        <v>3.0567392598764069</v>
       </c>
       <c r="Y46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34656805851311945</v>
+        <v>-1.390653599729585</v>
       </c>
       <c r="Z46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9972537415747662</v>
+        <v>0.16584677032071693</v>
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
@@ -30545,99 +30290,99 @@
       </c>
       <c r="C47" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1587845696473975</v>
+        <v>1.9388850892196068</v>
       </c>
       <c r="D47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8901647797240374</v>
+        <v>-1.9156858458420731</v>
       </c>
       <c r="E47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2241248665145239</v>
+        <v>-5.4015075159719164</v>
       </c>
       <c r="F47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6150386120512246</v>
+        <v>-5.5712366224555403</v>
       </c>
       <c r="G47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3536207777995628</v>
+        <v>0.61964051350755134</v>
       </c>
       <c r="H47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2414885262726982</v>
+        <v>2.661524130012856</v>
       </c>
       <c r="I47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24710307081417615</v>
+        <v>-0.53840791218544992</v>
       </c>
       <c r="J47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3240626435122094</v>
+        <v>0.54315331385877608</v>
       </c>
       <c r="K47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37896739340337121</v>
+        <v>-10.917812655632622</v>
       </c>
       <c r="L47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.3524063057473956</v>
+        <v>1.2025595255466701</v>
       </c>
       <c r="M47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1222519601028917</v>
+        <v>1.3372923249430917</v>
       </c>
       <c r="N47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.820095982085336</v>
+        <v>-5.1836591467865798</v>
       </c>
       <c r="O47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23316950488928037</v>
+        <v>-1.2898430802523304</v>
       </c>
       <c r="P47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3139371018609842</v>
+        <v>2.4467685641542092</v>
       </c>
       <c r="Q47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3798971901498023</v>
+        <v>-2.3629505388022354</v>
       </c>
       <c r="R47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.007813948706016</v>
+        <v>-4.2511079971453993</v>
       </c>
       <c r="S47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82927804022355489</v>
+        <v>2.543514400693478</v>
       </c>
       <c r="T47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.64411747249759</v>
+        <v>2.8987083894788976</v>
       </c>
       <c r="U47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1735567629423072</v>
+        <v>0.84627482426783074</v>
       </c>
       <c r="V47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.035988975654996</v>
+        <v>1.3844193620254528</v>
       </c>
       <c r="W47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2951831125496249</v>
+        <v>4.0192900394017661</v>
       </c>
       <c r="X47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1710794082756291</v>
+        <v>3.3866071495732508</v>
       </c>
       <c r="Y47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.96696843303564584</v>
+        <v>-1.3696491044191774</v>
       </c>
       <c r="Z47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6538776116258171</v>
+        <v>-0.58349138544677936</v>
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.25">
@@ -30646,99 +30391,99 @@
       </c>
       <c r="C48" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9503043794671031</v>
+        <v>0.53264034479166456</v>
       </c>
       <c r="D48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3708127774164893</v>
+        <v>-1.5313054292803925</v>
       </c>
       <c r="E48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7949855026507708</v>
+        <v>-6.0949400402328502</v>
       </c>
       <c r="F48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5812585115206415</v>
+        <v>-6.1418173601214159</v>
       </c>
       <c r="G48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5037467592176244</v>
+        <v>0.95139676136676643</v>
       </c>
       <c r="H48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1608435942129676</v>
+        <v>1.895870080604936</v>
       </c>
       <c r="I48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.43661820950574615</v>
+        <v>-0.98629851110709932</v>
       </c>
       <c r="J48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80911123572343513</v>
+        <v>1.7744429305081983</v>
       </c>
       <c r="K48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45982150786090176</v>
+        <v>-8.3708814716992883</v>
       </c>
       <c r="L48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.3059089491233555</v>
+        <v>-0.2417082765524361</v>
       </c>
       <c r="M48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0136010588866795</v>
+        <v>2.0201441274379026</v>
       </c>
       <c r="N48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.446547498132372</v>
+        <v>-4.534345135638814</v>
       </c>
       <c r="O48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23245665013231195</v>
+        <v>-0.25696355488857647</v>
       </c>
       <c r="P48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0591705746740754</v>
+        <v>3.5514375160214571</v>
       </c>
       <c r="Q48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0719104038910847</v>
+        <v>-2.6493704128621411</v>
       </c>
       <c r="R48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2150164267671375E-2</v>
+        <v>-1.9080921358744076</v>
       </c>
       <c r="S48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42872587856488648</v>
+        <v>1.5917547583067646</v>
       </c>
       <c r="T48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.435900515724259</v>
+        <v>3.1374198303498018</v>
       </c>
       <c r="U48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7321543093952103</v>
+        <v>1.6361695434500516</v>
       </c>
       <c r="V48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6618799301514535</v>
+        <v>1.8505225831745493</v>
       </c>
       <c r="W48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25720163503441995</v>
+        <v>2.5720549515427304</v>
       </c>
       <c r="X48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.163678200798181</v>
+        <v>3.7033148221197738</v>
       </c>
       <c r="Y48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95159219168307052</v>
+        <v>-1.4093425425997252</v>
       </c>
       <c r="Z48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8237074994709781</v>
+        <v>-1.4163210566440232</v>
       </c>
     </row>
   </sheetData>
@@ -31193,34 +30938,6 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0781CB3-A10F-794B-901F-DA46E5DD1444}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{82515C71-84CF-594B-A59A-30CE4B4F4C83}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F245030C-CE66-0A42-953D-58336E3DA15C}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -31238,7 +30955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F1D69-E77D-554B-88AB-28AA41149712}">
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FF7030A0"/>
@@ -31418,7 +31135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A19A5-2B87-B34D-A000-9EDAF870205B}">
   <sheetPr codeName="Sheet19">
     <tabColor rgb="FF7030A0"/>
@@ -31752,7 +31469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFFBCF3-E0DD-4843-8F8D-0FBD21392101}">
   <sheetPr codeName="Sheet20">
     <tabColor rgb="FF7030A0"/>
@@ -32037,7 +31754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8E64D4-6792-2C4A-9C76-EA34CCB90981}">
   <sheetPr codeName="Sheet21">
     <tabColor rgb="FF7030A0"/>
@@ -32532,7 +32249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB00934F-94FC-2A4A-B536-DA0F4E3171EC}">
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FF7030A0"/>

--- a/C4RM_Class_02.xlsx
+++ b/C4RM_Class_02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Library/CloudStorage/GoogleDrive-davethemovie@gmail.com/My Drive/Columbia/Classes/C4RM/Classfiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/AA/GoodStuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8BCDDA-9B9B-D144-877C-B9E1D5DBD472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687EDBB2-9D57-9844-B508-EC0317C98C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15820" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
   </bookViews>
@@ -39,9 +39,10 @@
     <sheet name="DataObj3" sheetId="34" r:id="rId24"/>
     <sheet name="DataObj4" sheetId="35" r:id="rId25"/>
     <sheet name="DataObj5" sheetId="36" r:id="rId26"/>
+    <sheet name="SQL_Text" sheetId="42" r:id="rId27"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Office1_Filter!$B$2:$E$869</definedName>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="160">
   <si>
     <t>ytm</t>
   </si>
@@ -548,6 +549,9 @@
   </si>
   <si>
     <t>The size of the array equals the last index minus the first + 1.</t>
+  </si>
+  <si>
+    <t>SQLite Online</t>
   </si>
 </sst>
 </file>
@@ -1671,6 +1675,257 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB2995E-4ACA-B142-9FC4-FB691EBE30C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="622300"/>
+          <a:ext cx="3302000" cy="1765300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT length('Elephant')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT upper('Elephant')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT lower('Elephant')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT substr('Elephant',4,5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT REPLACE('Hello, World!', 'World', 'SQLite');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9899AFA-45DB-134D-81A9-460EEF26BBE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="2641600"/>
+          <a:ext cx="3302000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Homework</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Return last 3 letters of 'highway'</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Save the work in a sql file named text.sql</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3204,7 +3459,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Today"/>
@@ -3230,20 +3485,20 @@
       <sheetName val="NextTime"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
       <sheetData sheetId="14">
         <row r="6">
           <cell r="C6">
@@ -3261,10 +3516,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
       <sheetData sheetId="19" refreshError="1"/>
       <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
@@ -3273,9 +3528,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3313,7 +3568,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3419,7 +3674,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3561,7 +3816,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -29482,99 +29737,99 @@
       </c>
       <c r="C39" s="14">
         <f ca="1">C38+_xlfn.NORM.S.INV(RAND())</f>
-        <v>1.5940910141446125</v>
+        <v>-0.3339761024668067</v>
       </c>
       <c r="D39" s="14">
         <f t="shared" ref="D39:Z48" ca="1" si="0">D38+_xlfn.NORM.S.INV(RAND())</f>
-        <v>5.3468247887804785E-2</v>
+        <v>2.0065740476496958</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.83310184131023857</v>
+        <v>0.36681068464310768</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22490529432299777</v>
+        <v>-5.0789009678253366E-2</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2994988696076992</v>
+        <v>0.6411803661082206</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.31358984631442355</v>
+        <v>0.61814417958586387</v>
       </c>
       <c r="I39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8560998517243623</v>
+        <v>-0.32223345962408989</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.38908123051245069</v>
+        <v>0.70648737147930396</v>
       </c>
       <c r="K39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0186061744068668</v>
+        <v>1.1413093878044425</v>
       </c>
       <c r="L39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1999871313739841</v>
+        <v>-0.23455386399808084</v>
       </c>
       <c r="M39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5021375832652204</v>
+        <v>0.30473707967296537</v>
       </c>
       <c r="N39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.73436890401963095</v>
+        <v>0.82423307944426605</v>
       </c>
       <c r="O39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4915006326299645</v>
+        <v>-0.76144285263268552</v>
       </c>
       <c r="P39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.88612365270778726</v>
+        <v>1.0971619745072205</v>
       </c>
       <c r="Q39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54870355945239446</v>
+        <v>-0.62179906516658667</v>
       </c>
       <c r="R39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.054138482229074</v>
+        <v>-2.1077709474875155</v>
       </c>
       <c r="S39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12091523001312855</v>
+        <v>0.66949007457519571</v>
       </c>
       <c r="T39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49734152254579728</v>
+        <v>0.83108801062294413</v>
       </c>
       <c r="U39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.351453532371659</v>
+        <v>-1.4689073742151793</v>
       </c>
       <c r="V39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7038796328757073E-2</v>
+        <v>-0.47485378695510544</v>
       </c>
       <c r="W39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1973349461480067</v>
+        <v>-5.9654086545589083E-2</v>
       </c>
       <c r="X39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64620719173029328</v>
+        <v>2.0527574990702484</v>
       </c>
       <c r="Y39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12451632748828306</v>
+        <v>0.38049867218302336</v>
       </c>
       <c r="Z39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38950729674568685</v>
+        <v>0.16107309586991087</v>
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
@@ -29583,99 +29838,99 @@
       </c>
       <c r="C40" s="14">
         <f t="shared" ref="C40:C48" ca="1" si="1">C39+_xlfn.NORM.S.INV(RAND())</f>
-        <v>1.238747078561772</v>
+        <v>-0.64136054785763885</v>
       </c>
       <c r="D40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.3290042197736183E-2</v>
+        <v>0.26204734576561006</v>
       </c>
       <c r="E40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3656740708351902</v>
+        <v>1.8367436870107032</v>
       </c>
       <c r="F40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16931763023626878</v>
+        <v>0.51144111365115807</v>
       </c>
       <c r="G40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49099459313547134</v>
+        <v>1.4763224311748875</v>
       </c>
       <c r="H40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50851507905073634</v>
+        <v>-0.44677881145240039</v>
       </c>
       <c r="I40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1719779297341169</v>
+        <v>1.2977915332848513</v>
       </c>
       <c r="J40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44138202866000698</v>
+        <v>1.2365991084575563</v>
       </c>
       <c r="K40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5416617754222965</v>
+        <v>-0.11410393850422285</v>
       </c>
       <c r="L40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11671929436268957</v>
+        <v>0.98236805975859021</v>
       </c>
       <c r="M40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9961343817617903</v>
+        <v>2.3337520269928191</v>
       </c>
       <c r="N40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5184122066692169</v>
+        <v>-0.79511681759057673</v>
       </c>
       <c r="O40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4312642032604419</v>
+        <v>-1.1062209166914623</v>
       </c>
       <c r="P40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0784583330497846E-2</v>
+        <v>1.0406335329798275</v>
       </c>
       <c r="Q40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37467602131776279</v>
+        <v>-5.9258755360719673E-2</v>
       </c>
       <c r="R40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.206907209325804</v>
+        <v>-3.3731875172934211</v>
       </c>
       <c r="S40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24575153798391519</v>
+        <v>-0.14367617376372144</v>
       </c>
       <c r="T40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5675123777701794E-2</v>
+        <v>0.36744450982991866</v>
       </c>
       <c r="U40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2303580701644119</v>
+        <v>-1.4708347761696445</v>
       </c>
       <c r="V40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3280455881487414</v>
+        <v>0.7331218755260982</v>
       </c>
       <c r="W40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0108708117012801</v>
+        <v>0.31988091639371735</v>
       </c>
       <c r="X40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4589454014341925E-2</v>
+        <v>3.3901120047973392</v>
       </c>
       <c r="Y40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40834231909776492</v>
+        <v>1.6277387059882611</v>
       </c>
       <c r="Z40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15457716112818348</v>
+        <v>0.76092557226961466</v>
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
@@ -29684,99 +29939,99 @@
       </c>
       <c r="C41" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2746223721825236</v>
+        <v>1.3962543499862723</v>
       </c>
       <c r="D41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.36623716532081491</v>
+        <v>0.60366892984570186</v>
       </c>
       <c r="E41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4863542123878171</v>
+        <v>1.0937298916634277</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10502882842372288</v>
+        <v>0.84722979957732392</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21040077424516312</v>
+        <v>1.2901186389184791</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89331978521198618</v>
+        <v>0.34401549419794863</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55474128454306548</v>
+        <v>1.5423354695140346</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0422219129550276</v>
+        <v>8.8618080365419294E-2</v>
       </c>
       <c r="K41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8786330159360194</v>
+        <v>-0.78800657228494908</v>
       </c>
       <c r="L41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.48478593001429426</v>
+        <v>1.1762262154005749</v>
       </c>
       <c r="M41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2715493940269544</v>
+        <v>-0.41046274212033262</v>
       </c>
       <c r="N41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4793267483791304</v>
+        <v>0.7256810887942351</v>
       </c>
       <c r="O41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10959957215222738</v>
+        <v>-1.032701887054728</v>
       </c>
       <c r="P41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93749429079940483</v>
+        <v>1.184690645339975</v>
       </c>
       <c r="Q41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66600659090224312</v>
+        <v>1.3202193950922601</v>
       </c>
       <c r="R41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2873290501672976</v>
+        <v>-5.1022267688291656</v>
       </c>
       <c r="S41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0889221952136281</v>
+        <v>0.25069609429240913</v>
       </c>
       <c r="T41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.41062730132727443</v>
+        <v>2.4201421668951784E-2</v>
       </c>
       <c r="U41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59114339601175026</v>
+        <v>0.50951734829378181</v>
       </c>
       <c r="V41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6209435436338806</v>
+        <v>2.1320602759274392</v>
       </c>
       <c r="W41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1546662856875956</v>
+        <v>1.9452002351041748</v>
       </c>
       <c r="X41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.89836982209079064</v>
+        <v>2.4516284274981484</v>
       </c>
       <c r="Y41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68346364065701692</v>
+        <v>0.5421189499096295</v>
       </c>
       <c r="Z41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5242831183075758</v>
+        <v>0.30981826501393167</v>
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
@@ -29785,99 +30040,99 @@
       </c>
       <c r="C42" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57380435943061925</v>
+        <v>1.7120911414512763</v>
       </c>
       <c r="D42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57224542013566948</v>
+        <v>-1.021425151998586</v>
       </c>
       <c r="E42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9238655327926679</v>
+        <v>1.2805159156590809</v>
       </c>
       <c r="F42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0031946975451878</v>
+        <v>0.94971484615785418</v>
       </c>
       <c r="G42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96540276452604323</v>
+        <v>1.283530650460919</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8424713445589882</v>
+        <v>1.3919240086397293</v>
       </c>
       <c r="I42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17909119405875285</v>
+        <v>2.283763030041551</v>
       </c>
       <c r="J42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9545436426329896E-2</v>
+        <v>-0.24728464641998327</v>
       </c>
       <c r="K42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.743082218872571</v>
+        <v>-2.1612886188878684</v>
       </c>
       <c r="L42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.48967404924301522</v>
+        <v>1.3952731299293482</v>
       </c>
       <c r="M42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3719097822945123</v>
+        <v>-0.75613316191545321</v>
       </c>
       <c r="N42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0033505679951782</v>
+        <v>1.4471120165232121</v>
       </c>
       <c r="O42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9392187860957172E-2</v>
+        <v>-1.3213580157108138</v>
       </c>
       <c r="P42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5746963126552909</v>
+        <v>2.4608195833369209</v>
       </c>
       <c r="Q42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.148473234030063</v>
+        <v>0.91189830445280817</v>
       </c>
       <c r="R42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7336635848810142</v>
+        <v>-3.6435892607921381</v>
       </c>
       <c r="S42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0019283081345121</v>
+        <v>-2.5872661160576071E-2</v>
       </c>
       <c r="T42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1816731296288063E-4</v>
+        <v>1.3582551344113898</v>
       </c>
       <c r="U42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0699257228337125</v>
+        <v>0.99235981259129646</v>
       </c>
       <c r="V42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45798121489980526</v>
+        <v>2.7207578725795702</v>
       </c>
       <c r="W42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2525449594532203</v>
+        <v>2.5426801444848293</v>
       </c>
       <c r="X42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56964334914063453</v>
+        <v>2.8672829882687099</v>
       </c>
       <c r="Y42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3747149128321605</v>
+        <v>0.53108864315108884</v>
       </c>
       <c r="Z42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.117708544233303</v>
+        <v>1.9823065643791549</v>
       </c>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
@@ -29886,99 +30141,99 @@
       </c>
       <c r="C43" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1264900751372142</v>
+        <v>1.5140083016686678</v>
       </c>
       <c r="D43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2651927849792854</v>
+        <v>0.87104646915223949</v>
       </c>
       <c r="E43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.957446681710123</v>
+        <v>-0.2960924070098645</v>
       </c>
       <c r="F43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0406584471817437</v>
+        <v>-0.8736235326445041</v>
       </c>
       <c r="G43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1235337504308653</v>
+        <v>3.0334492676001137</v>
       </c>
       <c r="H43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6181014297460816</v>
+        <v>1.193342557785112</v>
       </c>
       <c r="I43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.21325671302465793</v>
+        <v>3.1689195345079915</v>
       </c>
       <c r="J43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69174657205500734</v>
+        <v>-1.0598746685739104</v>
       </c>
       <c r="K43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.0026335471495553</v>
+        <v>-2.8322095021852771</v>
       </c>
       <c r="L43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.29939970278842803</v>
+        <v>2.2437002933222074</v>
       </c>
       <c r="M43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6381751994701803</v>
+        <v>0.69894350608362688</v>
       </c>
       <c r="N43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8162730908842246</v>
+        <v>5.7705560728770866E-2</v>
       </c>
       <c r="O43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.005632395126226</v>
+        <v>-3.6124640725794173</v>
       </c>
       <c r="P43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9055235181073669</v>
+        <v>2.2984310656346802</v>
       </c>
       <c r="Q43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.961302168830132E-2</v>
+        <v>4.6407852416222473E-2</v>
       </c>
       <c r="R43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8634307560120891</v>
+        <v>-4.7049525656854136</v>
       </c>
       <c r="S43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3005571500257735</v>
+        <v>1.5060298826401657</v>
       </c>
       <c r="T43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4322103476667869</v>
+        <v>1.4887883630729974</v>
       </c>
       <c r="U43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2836003628241182</v>
+        <v>2.6623764260116385</v>
       </c>
       <c r="V43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99492966659945314</v>
+        <v>2.4399416254985571</v>
       </c>
       <c r="W43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.955871739919534</v>
+        <v>3.9469654836345529</v>
       </c>
       <c r="X43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.27231942171115026</v>
+        <v>3.4391078507640858</v>
       </c>
       <c r="Y43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2590582790365858</v>
+        <v>-5.5519120833871005E-2</v>
       </c>
       <c r="Z43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3056401995368616</v>
+        <v>0.12458486591629958</v>
       </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
@@ -29987,99 +30242,99 @@
       </c>
       <c r="C44" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6991133225201027</v>
+        <v>2.7401920757464646</v>
       </c>
       <c r="D44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4264368081270313</v>
+        <v>0.91803638090174422</v>
       </c>
       <c r="E44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4757756947362655</v>
+        <v>-8.1303966462623029E-2</v>
       </c>
       <c r="F44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9865375123209661</v>
+        <v>-1.5947034735791132</v>
       </c>
       <c r="G44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63395446627469021</v>
+        <v>4.2850767658576139</v>
       </c>
       <c r="H44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1127071750688087</v>
+        <v>1.6710431060379745</v>
       </c>
       <c r="I44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12580869167958206</v>
+        <v>2.4885910782149763</v>
       </c>
       <c r="J44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7449605588414927</v>
+        <v>-1.6108741863438194</v>
       </c>
       <c r="K44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.1894468396852353</v>
+        <v>-1.4781229988485818</v>
       </c>
       <c r="L44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31981830185499233</v>
+        <v>3.2547360480266962</v>
       </c>
       <c r="M44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1384530988900714</v>
+        <v>-0.28349858221418855</v>
       </c>
       <c r="N44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1636093439260922</v>
+        <v>3.7386398658169832E-2</v>
       </c>
       <c r="O44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0465225305917236</v>
+        <v>-2.6314397896816173</v>
       </c>
       <c r="P44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.566458446967236</v>
+        <v>0.51613304478762201</v>
       </c>
       <c r="Q44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0182567920562973</v>
+        <v>0.40980770233277664</v>
       </c>
       <c r="R44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2127590372223596</v>
+        <v>-5.7181547881595947</v>
       </c>
       <c r="S44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8836887715336461</v>
+        <v>2.3891732319522494</v>
       </c>
       <c r="T44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2284662667810835</v>
+        <v>-3.734641926837412E-2</v>
       </c>
       <c r="U44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0576875636616498</v>
+        <v>3.2765772216678597</v>
       </c>
       <c r="V44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7058224472794359</v>
+        <v>1.9451208994470324</v>
       </c>
       <c r="W44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2375605858256837</v>
+        <v>4.7108471339513169</v>
       </c>
       <c r="X44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23383924567993983</v>
+        <v>4.5622983122682905</v>
       </c>
       <c r="Y44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90930641155114722</v>
+        <v>6.7165637098547601E-2</v>
       </c>
       <c r="Z44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3168207071080609</v>
+        <v>0.99884090161418815</v>
       </c>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
@@ -30088,99 +30343,99 @@
       </c>
       <c r="C45" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6685492585446031</v>
+        <v>3.4474753631816659</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6473674274800505</v>
+        <v>1.8233833799188957</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4380604547440399</v>
+        <v>0.44797456778972566</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.882041199457182</v>
+        <v>-2.0153759788536076</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33166789345758074</v>
+        <v>5.0581717091951468</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85071740328712186</v>
+        <v>2.0139157241949524</v>
       </c>
       <c r="I45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5718416177949351E-3</v>
+        <v>2.9017910661089226</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22405347988998747</v>
+        <v>-0.88159189806554283</v>
       </c>
       <c r="K45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.9253780698325933</v>
+        <v>-0.35369478882144767</v>
       </c>
       <c r="L45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.2297062300933142</v>
+        <v>3.7274870818775105</v>
       </c>
       <c r="M45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7462264027894423</v>
+        <v>-1.6565706888413438</v>
       </c>
       <c r="N45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9549702963599858</v>
+        <v>-1.0749001298391718</v>
       </c>
       <c r="O45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67915312224014834</v>
+        <v>-4.3402115627651074</v>
       </c>
       <c r="P45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7379688310264068</v>
+        <v>2.3276420960028528</v>
       </c>
       <c r="Q45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8868620514207488</v>
+        <v>1.3944924376579342</v>
       </c>
       <c r="R45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5856326372778398</v>
+        <v>-3.8111187513387255</v>
       </c>
       <c r="S45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0654068961437053</v>
+        <v>3.3707782912130191</v>
       </c>
       <c r="T45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7405655593906459</v>
+        <v>9.987303860369226E-2</v>
       </c>
       <c r="U45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58744612928463602</v>
+        <v>4.0285436486487445</v>
       </c>
       <c r="V45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1350498129068793</v>
+        <v>1.56669589081768</v>
       </c>
       <c r="W45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3935867159889774E-2</v>
+        <v>3.3059508443780738</v>
       </c>
       <c r="X45" s="14">
         <f ca="1">X44+_xlfn.NORM.S.INV(RAND())</f>
-        <v>1.6293291578062761</v>
+        <v>5.4798493314334813</v>
       </c>
       <c r="Y45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2914730343965575</v>
+        <v>1.5454042891076769</v>
       </c>
       <c r="Z45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2780135517036362</v>
+        <v>-5.6972419666290408E-2</v>
       </c>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
@@ -30189,99 +30444,99 @@
       </c>
       <c r="C46" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5867600027959443</v>
+        <v>2.5198141321733285</v>
       </c>
       <c r="D46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1077333119939403</v>
+        <v>1.8904883468601101</v>
       </c>
       <c r="E46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2669824207141307</v>
+        <v>0.1252189446472336</v>
       </c>
       <c r="F46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1933612855419762</v>
+        <v>-1.782274732108055</v>
       </c>
       <c r="G46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2040612673806865</v>
+        <v>4.2883206810126993</v>
       </c>
       <c r="H46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98099458107216686</v>
+        <v>0.73318802103030301</v>
       </c>
       <c r="I46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63999018607007208</v>
+        <v>1.9618433684828196</v>
       </c>
       <c r="J46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22806680840596721</v>
+        <v>-0.69026697124773284</v>
       </c>
       <c r="K46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.257712423932094</v>
+        <v>0.49471997675485113</v>
       </c>
       <c r="L46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5156758727075705E-2</v>
+        <v>4.8026091679923297</v>
       </c>
       <c r="M46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0612675423609836</v>
+        <v>-1.3396609983385208</v>
       </c>
       <c r="N46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0627156292959477</v>
+        <v>-0.2399293822125651</v>
       </c>
       <c r="O46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12747696740948677</v>
+        <v>-3.4753477735663196</v>
       </c>
       <c r="P46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9157404583475066</v>
+        <v>2.6522698282474235</v>
       </c>
       <c r="Q46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0625818696188158</v>
+        <v>1.9376432339374696</v>
       </c>
       <c r="R46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4373934668174142</v>
+        <v>-3.0362589272521658</v>
       </c>
       <c r="S46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3227244106769152</v>
+        <v>3.2725256991768599</v>
       </c>
       <c r="T46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7154491809520063</v>
+        <v>9.1013977311170696E-2</v>
       </c>
       <c r="U46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83526963451901914</v>
+        <v>3.0238408552610414</v>
       </c>
       <c r="V46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3087862923997471</v>
+        <v>0.67214884649305939</v>
       </c>
       <c r="W46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5578871013832396</v>
+        <v>4.4182688469987683</v>
       </c>
       <c r="X46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0567392598764069</v>
+        <v>6.5284415346419156</v>
       </c>
       <c r="Y46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.390653599729585</v>
+        <v>2.2900868940883177</v>
       </c>
       <c r="Z46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16584677032071693</v>
+        <v>0.11536645089168121</v>
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
@@ -30290,99 +30545,99 @@
       </c>
       <c r="C47" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9388850892196068</v>
+        <v>3.5774913444314214</v>
       </c>
       <c r="D47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9156858458420731</v>
+        <v>2.2080600773030037</v>
       </c>
       <c r="E47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4015075159719164</v>
+        <v>0.25847293707681251</v>
       </c>
       <c r="F47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5712366224555403</v>
+        <v>-1.0794379876850764</v>
       </c>
       <c r="G47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61964051350755134</v>
+        <v>4.3583156832586587</v>
       </c>
       <c r="H47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.661524130012856</v>
+        <v>-0.24581730483015884</v>
       </c>
       <c r="I47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.53840791218544992</v>
+        <v>1.3703010354472158</v>
       </c>
       <c r="J47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54315331385877608</v>
+        <v>1.3742549226056076</v>
       </c>
       <c r="K47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.917812655632622</v>
+        <v>0.12924482326318099</v>
       </c>
       <c r="L47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2025595255466701</v>
+        <v>6.3950019215958278</v>
       </c>
       <c r="M47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3372923249430917</v>
+        <v>-0.39696862607362571</v>
       </c>
       <c r="N47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1836591467865798</v>
+        <v>-0.77787043538495526</v>
       </c>
       <c r="O47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2898430802523304</v>
+        <v>-1.3445418171820132</v>
       </c>
       <c r="P47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4467685641542092</v>
+        <v>1.5240288185226594</v>
       </c>
       <c r="Q47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3629505388022354</v>
+        <v>0.56795134215293697</v>
       </c>
       <c r="R47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2511079971453993</v>
+        <v>-4.7082694708558579</v>
       </c>
       <c r="S47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.543514400693478</v>
+        <v>2.4962429745233097</v>
       </c>
       <c r="T47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8987083894788976</v>
+        <v>0.10279516846263813</v>
       </c>
       <c r="U47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84627482426783074</v>
+        <v>2.222043468372104</v>
       </c>
       <c r="V47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3844193620254528</v>
+        <v>0.68046083293539184</v>
       </c>
       <c r="W47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0192900394017661</v>
+        <v>5.0478251345025145</v>
       </c>
       <c r="X47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3866071495732508</v>
+        <v>5.5584352900839082</v>
       </c>
       <c r="Y47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3696491044191774</v>
+        <v>1.3536363850093927</v>
       </c>
       <c r="Z47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.58349138544677936</v>
+        <v>0.32170883058602756</v>
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.25">
@@ -30391,99 +30646,99 @@
       </c>
       <c r="C48" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53264034479166456</v>
+        <v>2.9158046986032016</v>
       </c>
       <c r="D48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5313054292803925</v>
+        <v>2.5339119093739946</v>
       </c>
       <c r="E48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0949400402328502</v>
+        <v>0.50342374296573589</v>
       </c>
       <c r="F48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1418173601214159</v>
+        <v>-1.9558922901136295</v>
       </c>
       <c r="G48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95139676136676643</v>
+        <v>3.3591443809927566</v>
       </c>
       <c r="H48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.895870080604936</v>
+        <v>1.0305239556369583</v>
       </c>
       <c r="I48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.98629851110709932</v>
+        <v>3.0321788451313134</v>
       </c>
       <c r="J48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7744429305081983</v>
+        <v>0.54436714613058512</v>
       </c>
       <c r="K48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.3708814716992883</v>
+        <v>0.35949831273787058</v>
       </c>
       <c r="L48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.2417082765524361</v>
+        <v>4.6864830651862954</v>
       </c>
       <c r="M48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0201441274379026</v>
+        <v>-0.55909571817017156</v>
       </c>
       <c r="N48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.534345135638814</v>
+        <v>0.1450194548808994</v>
       </c>
       <c r="O48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.25696355488857647</v>
+        <v>-1.476387136382932</v>
       </c>
       <c r="P48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5514375160214571</v>
+        <v>2.2271214347906207</v>
       </c>
       <c r="Q48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6493704128621411</v>
+        <v>1.3477445344682346</v>
       </c>
       <c r="R48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9080921358744076</v>
+        <v>-3.6358926114601831</v>
       </c>
       <c r="S48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5917547583067646</v>
+        <v>4.7995457502100649</v>
       </c>
       <c r="T48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1374198303498018</v>
+        <v>-0.85607586814233749</v>
       </c>
       <c r="U48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6361695434500516</v>
+        <v>2.1141912300046841</v>
       </c>
       <c r="V48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8505225831745493</v>
+        <v>0.31925524238590341</v>
       </c>
       <c r="W48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5720549515427304</v>
+        <v>5.5656420731144935</v>
       </c>
       <c r="X48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7033148221197738</v>
+        <v>4.9453507355260031</v>
       </c>
       <c r="Y48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4093425425997252</v>
+        <v>1.8793758383681163</v>
       </c>
       <c r="Z48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4163210566440232</v>
+        <v>0.46585686698489948</v>
       </c>
     </row>
   </sheetData>
@@ -33672,6 +33927,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7259EF5-104F-664A-8276-7E9D6DE86674}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6F2DE0CD-7F2A-0749-9016-04151EAD4471}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/C4RM_Class_02.xlsx
+++ b/C4RM_Class_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/AA/GoodStuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687EDBB2-9D57-9844-B508-EC0317C98C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0C48A8-A788-2945-8BBB-E66F6F0C69DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15820" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
+    <workbookView xWindow="-7180" yWindow="-20700" windowWidth="39140" windowHeight="15820" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,13 @@
     <sheet name="qDataTypes1" sheetId="15" state="hidden" r:id="rId18"/>
     <sheet name="qDataTypes2" sheetId="30" state="hidden" r:id="rId19"/>
     <sheet name="qFizzBuzz" sheetId="16" r:id="rId20"/>
-    <sheet name="Appendix " sheetId="37" r:id="rId21"/>
-    <sheet name="DataObj1" sheetId="32" r:id="rId22"/>
-    <sheet name="DataObj2" sheetId="33" r:id="rId23"/>
-    <sheet name="DataObj3" sheetId="34" r:id="rId24"/>
-    <sheet name="DataObj4" sheetId="35" r:id="rId25"/>
-    <sheet name="DataObj5" sheetId="36" r:id="rId26"/>
-    <sheet name="SQL_Text" sheetId="42" r:id="rId27"/>
+    <sheet name="SQL_Text" sheetId="42" r:id="rId21"/>
+    <sheet name="Appendix " sheetId="37" r:id="rId22"/>
+    <sheet name="DataObj1" sheetId="32" r:id="rId23"/>
+    <sheet name="DataObj2" sheetId="33" r:id="rId24"/>
+    <sheet name="DataObj3" sheetId="34" r:id="rId25"/>
+    <sheet name="DataObj4" sheetId="35" r:id="rId26"/>
+    <sheet name="DataObj5" sheetId="36" r:id="rId27"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId28"/>
@@ -54,7 +54,7 @@
     <definedName name="xVector">qNamedRanges1!$D$7:$D$16</definedName>
     <definedName name="ytm">[1]qFunctions!$C$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000"/>
+  <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2587,7 +2587,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>x = Range("NamedRange").Value</a:t>
+            <a:t>x = Range(XXX).Value</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -29737,99 +29737,99 @@
       </c>
       <c r="C39" s="14">
         <f ca="1">C38+_xlfn.NORM.S.INV(RAND())</f>
-        <v>-0.3339761024668067</v>
+        <v>-0.50565263567157637</v>
       </c>
       <c r="D39" s="14">
         <f t="shared" ref="D39:Z48" ca="1" si="0">D38+_xlfn.NORM.S.INV(RAND())</f>
-        <v>2.0065740476496958</v>
+        <v>-1.0527687837046884</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36681068464310768</v>
+        <v>6.7713328768565728E-2</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0789009678253366E-2</v>
+        <v>1.5723846514416497</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6411803661082206</v>
+        <v>0.83695797892350698</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61814417958586387</v>
+        <v>-1.179040051104123</v>
       </c>
       <c r="I39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32223345962408989</v>
+        <v>-0.53851282003200918</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70648737147930396</v>
+        <v>-1.4441376728883428</v>
       </c>
       <c r="K39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1413093878044425</v>
+        <v>-1.3253456795516219</v>
       </c>
       <c r="L39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23455386399808084</v>
+        <v>0.92663910574204911</v>
       </c>
       <c r="M39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30473707967296537</v>
+        <v>-3.5522348220871164E-2</v>
       </c>
       <c r="N39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82423307944426605</v>
+        <v>0.36168797706239664</v>
       </c>
       <c r="O39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76144285263268552</v>
+        <v>1.1605145813413806</v>
       </c>
       <c r="P39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0971619745072205</v>
+        <v>0.23292476884854141</v>
       </c>
       <c r="Q39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.62179906516658667</v>
+        <v>1.1289638668946145</v>
       </c>
       <c r="R39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1077709474875155</v>
+        <v>-0.19654925497035611</v>
       </c>
       <c r="S39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66949007457519571</v>
+        <v>-0.84713229692357039</v>
       </c>
       <c r="T39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83108801062294413</v>
+        <v>0.69377802519926979</v>
       </c>
       <c r="U39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4689073742151793</v>
+        <v>0.24254857051909356</v>
       </c>
       <c r="V39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.47485378695510544</v>
+        <v>-0.14040325714717333</v>
       </c>
       <c r="W39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9654086545589083E-2</v>
+        <v>-0.30333713951616159</v>
       </c>
       <c r="X39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0527574990702484</v>
+        <v>-0.29932246948051167</v>
       </c>
       <c r="Y39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38049867218302336</v>
+        <v>0.41330813974571906</v>
       </c>
       <c r="Z39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16107309586991087</v>
+        <v>-1.350137397318466</v>
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
@@ -29838,99 +29838,99 @@
       </c>
       <c r="C40" s="14">
         <f t="shared" ref="C40:C48" ca="1" si="1">C39+_xlfn.NORM.S.INV(RAND())</f>
-        <v>-0.64136054785763885</v>
+        <v>-3.9060381938074096E-2</v>
       </c>
       <c r="D40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26204734576561006</v>
+        <v>-1.0982371020033932</v>
       </c>
       <c r="E40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8367436870107032</v>
+        <v>-4.6902816827172816E-2</v>
       </c>
       <c r="F40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51144111365115807</v>
+        <v>0.66856439142863477</v>
       </c>
       <c r="G40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4763224311748875</v>
+        <v>0.4384574747175517</v>
       </c>
       <c r="H40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.44677881145240039</v>
+        <v>-0.75048604032900568</v>
       </c>
       <c r="I40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2977915332848513</v>
+        <v>0.40989558762422595</v>
       </c>
       <c r="J40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2365991084575563</v>
+        <v>-1.4747526813497234</v>
       </c>
       <c r="K40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11410393850422285</v>
+        <v>4.8775984437115172E-2</v>
       </c>
       <c r="L40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98236805975859021</v>
+        <v>0.54791055290480561</v>
       </c>
       <c r="M40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3337520269928191</v>
+        <v>0.36708617467224591</v>
       </c>
       <c r="N40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.79511681759057673</v>
+        <v>1.0773882611757215</v>
       </c>
       <c r="O40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1062209166914623</v>
+        <v>0.79582883287010142</v>
       </c>
       <c r="P40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0406335329798275</v>
+        <v>1.1712016688800735</v>
       </c>
       <c r="Q40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9258755360719673E-2</v>
+        <v>1.1606612103553036</v>
       </c>
       <c r="R40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3731875172934211</v>
+        <v>-0.94760743184752927</v>
       </c>
       <c r="S40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14367617376372144</v>
+        <v>-1.976218729098161</v>
       </c>
       <c r="T40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36744450982991866</v>
+        <v>-0.54054101537241261</v>
       </c>
       <c r="U40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4708347761696445</v>
+        <v>1.4527528688615767</v>
       </c>
       <c r="V40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7331218755260982</v>
+        <v>-0.31963610381548208</v>
       </c>
       <c r="W40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31988091639371735</v>
+        <v>-1.8114034058906725</v>
       </c>
       <c r="X40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3901120047973392</v>
+        <v>-1.2169988445716489</v>
       </c>
       <c r="Y40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6277387059882611</v>
+        <v>0.40482279523007053</v>
       </c>
       <c r="Z40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76092557226961466</v>
+        <v>-1.1564514329093667</v>
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
@@ -29939,99 +29939,99 @@
       </c>
       <c r="C41" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3962543499862723</v>
+        <v>1.401386798801012</v>
       </c>
       <c r="D41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60366892984570186</v>
+        <v>-2.4534062971143826</v>
       </c>
       <c r="E41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0937298916634277</v>
+        <v>1.2165328273185549</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84722979957732392</v>
+        <v>-0.66480098802174825</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2901186389184791</v>
+        <v>-1.3413105742706222</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34401549419794863</v>
+        <v>-1.0370307849890579</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5423354695140346</v>
+        <v>0.88398781314616526</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8618080365419294E-2</v>
+        <v>-1.2316974412474584</v>
       </c>
       <c r="K41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.78800657228494908</v>
+        <v>-2.0690803012857595</v>
       </c>
       <c r="L41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1762262154005749</v>
+        <v>-1.025918014098492</v>
       </c>
       <c r="M41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.41046274212033262</v>
+        <v>-0.33321374130942483</v>
       </c>
       <c r="N41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7256810887942351</v>
+        <v>1.6097812966149194</v>
       </c>
       <c r="O41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.032701887054728</v>
+        <v>2.1701124246431829</v>
       </c>
       <c r="P41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.184690645339975</v>
+        <v>1.8844366858485837</v>
       </c>
       <c r="Q41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3202193950922601</v>
+        <v>1.9360866862792063</v>
       </c>
       <c r="R41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1022267688291656</v>
+        <v>-2.1476196218330799</v>
       </c>
       <c r="S41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25069609429240913</v>
+        <v>-1.4907424505142406</v>
       </c>
       <c r="T41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4201421668951784E-2</v>
+        <v>0.48987683746659849</v>
       </c>
       <c r="U41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50951734829378181</v>
+        <v>0.43212081304538907</v>
       </c>
       <c r="V41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1320602759274392</v>
+        <v>-0.3275721757201091</v>
       </c>
       <c r="W41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9452002351041748</v>
+        <v>-3.2907134743939377</v>
       </c>
       <c r="X41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4516284274981484</v>
+        <v>-2.4122045031851607</v>
       </c>
       <c r="Y41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5421189499096295</v>
+        <v>-0.49965201542434218</v>
       </c>
       <c r="Z41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30981826501393167</v>
+        <v>-1.1513204697521129</v>
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
@@ -30040,99 +30040,99 @@
       </c>
       <c r="C42" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7120911414512763</v>
+        <v>3.0196082047481134</v>
       </c>
       <c r="D42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.021425151998586</v>
+        <v>-3.3504419811624704</v>
       </c>
       <c r="E42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2805159156590809</v>
+        <v>2.0338271199383131</v>
       </c>
       <c r="F42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94971484615785418</v>
+        <v>-1.100838655329262</v>
       </c>
       <c r="G42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.283530650460919</v>
+        <v>-1.3505533376361745</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3919240086397293</v>
+        <v>-2.8158678066958949</v>
       </c>
       <c r="I42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.283763030041551</v>
+        <v>0.71778150497120086</v>
       </c>
       <c r="J42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24728464641998327</v>
+        <v>-1.8171612341953391</v>
       </c>
       <c r="K42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1612886188878684</v>
+        <v>-3.0368351970755487</v>
       </c>
       <c r="L42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3952731299293482</v>
+        <v>-1.4200540141312388</v>
       </c>
       <c r="M42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.75613316191545321</v>
+        <v>-0.44968326263058339</v>
       </c>
       <c r="N42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4471120165232121</v>
+        <v>1.1374918039195923</v>
       </c>
       <c r="O42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3213580157108138</v>
+        <v>2.3759054873457695</v>
       </c>
       <c r="P42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4608195833369209</v>
+        <v>1.6549626589300879</v>
       </c>
       <c r="Q42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91189830445280817</v>
+        <v>3.5412898775888584</v>
       </c>
       <c r="R42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6435892607921381</v>
+        <v>-3.952432842951433</v>
       </c>
       <c r="S42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5872661160576071E-2</v>
+        <v>-0.22639516240449598</v>
       </c>
       <c r="T42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3582551344113898</v>
+        <v>1.3245696779150413</v>
       </c>
       <c r="U42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99235981259129646</v>
+        <v>1.7779177537400326</v>
       </c>
       <c r="V42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7207578725795702</v>
+        <v>-0.85763653439908361</v>
       </c>
       <c r="W42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5426801444848293</v>
+        <v>-3.5819759991369478</v>
       </c>
       <c r="X42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8672829882687099</v>
+        <v>-1.3488965883172515</v>
       </c>
       <c r="Y42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53108864315108884</v>
+        <v>-1.5097017750023103</v>
       </c>
       <c r="Z42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9823065643791549</v>
+        <v>-1.7015375470269998</v>
       </c>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
@@ -30141,99 +30141,99 @@
       </c>
       <c r="C43" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5140083016686678</v>
+        <v>3.0775017910843312</v>
       </c>
       <c r="D43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87104646915223949</v>
+        <v>-3.3843490177101487</v>
       </c>
       <c r="E43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.2960924070098645</v>
+        <v>2.4504023417332839</v>
       </c>
       <c r="F43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.8736235326445041</v>
+        <v>-0.18129528436413034</v>
       </c>
       <c r="G43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0334492676001137</v>
+        <v>-1.4616565735026346</v>
       </c>
       <c r="H43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.193342557785112</v>
+        <v>9.3270087599238938E-2</v>
       </c>
       <c r="I43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1689195345079915</v>
+        <v>2.4189207991508761</v>
       </c>
       <c r="J43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0598746685739104</v>
+        <v>-3.1153635841004323</v>
       </c>
       <c r="K43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8322095021852771</v>
+        <v>-2.7801064540893465</v>
       </c>
       <c r="L43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2437002933222074</v>
+        <v>-1.5613065189395554</v>
       </c>
       <c r="M43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69894350608362688</v>
+        <v>-3.5517202998238462E-2</v>
       </c>
       <c r="N43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7705560728770866E-2</v>
+        <v>1.7578454109783719</v>
       </c>
       <c r="O43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6124640725794173</v>
+        <v>3.4463011759888205</v>
       </c>
       <c r="P43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2984310656346802</v>
+        <v>-0.35299760620307219</v>
       </c>
       <c r="Q43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6407852416222473E-2</v>
+        <v>2.3375603201707476</v>
       </c>
       <c r="R43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7049525656854136</v>
+        <v>-4.4489454662401684</v>
       </c>
       <c r="S43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5060298826401657</v>
+        <v>-0.23788033540532288</v>
       </c>
       <c r="T43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4887883630729974</v>
+        <v>1.3543605060161388</v>
       </c>
       <c r="U43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6623764260116385</v>
+        <v>1.0493743436391112</v>
       </c>
       <c r="V43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4399416254985571</v>
+        <v>-1.1239202818789062</v>
       </c>
       <c r="W43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9469654836345529</v>
+        <v>-5.6223195279129401</v>
       </c>
       <c r="X43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4391078507640858</v>
+        <v>-0.80073633063195648</v>
       </c>
       <c r="Y43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5519120833871005E-2</v>
+        <v>-3.318645568428467</v>
       </c>
       <c r="Z43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12458486591629958</v>
+        <v>-1.4665228018571161</v>
       </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
@@ -30242,99 +30242,99 @@
       </c>
       <c r="C44" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7401920757464646</v>
+        <v>4.057886439957942</v>
       </c>
       <c r="D44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91803638090174422</v>
+        <v>-4.0204163454545965</v>
       </c>
       <c r="E44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.1303966462623029E-2</v>
+        <v>3.3301567277355559</v>
       </c>
       <c r="F44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5947034735791132</v>
+        <v>-0.86173876491526857</v>
       </c>
       <c r="G44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2850767658576139</v>
+        <v>-0.64053719790854513</v>
       </c>
       <c r="H44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6710431060379745</v>
+        <v>-0.15118473316197917</v>
       </c>
       <c r="I44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4885910782149763</v>
+        <v>2.7647899826450115</v>
       </c>
       <c r="J44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6108741863438194</v>
+        <v>-2.5349732870536759</v>
       </c>
       <c r="K44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4781229988485818</v>
+        <v>-2.2938839383927565</v>
       </c>
       <c r="L44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2547360480266962</v>
+        <v>2.4196820931840515</v>
       </c>
       <c r="M44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28349858221418855</v>
+        <v>0.27041032952158867</v>
       </c>
       <c r="N44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7386398658169832E-2</v>
+        <v>1.5314070556172403</v>
       </c>
       <c r="O44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6314397896816173</v>
+        <v>2.2583552002078235</v>
       </c>
       <c r="P44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51613304478762201</v>
+        <v>-1.2658022736328998</v>
       </c>
       <c r="Q44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40980770233277664</v>
+        <v>2.9541103589113655</v>
       </c>
       <c r="R44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.7181547881595947</v>
+        <v>-3.2479831373768331</v>
       </c>
       <c r="S44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3891732319522494</v>
+        <v>1.3829035641090335</v>
       </c>
       <c r="T44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.734641926837412E-2</v>
+        <v>1.3888497159199089</v>
       </c>
       <c r="U44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2765772216678597</v>
+        <v>1.5330955168683749</v>
       </c>
       <c r="V44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9451208994470324</v>
+        <v>-1.3391811914907885</v>
       </c>
       <c r="W44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7108471339513169</v>
+        <v>-5.3543594226707061</v>
       </c>
       <c r="X44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5622983122682905</v>
+        <v>-0.97019929182670939</v>
       </c>
       <c r="Y44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7165637098547601E-2</v>
+        <v>-2.1759511251503136</v>
       </c>
       <c r="Z44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99884090161418815</v>
+        <v>-2.3157065426651524E-2</v>
       </c>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
@@ -30343,99 +30343,99 @@
       </c>
       <c r="C45" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4474753631816659</v>
+        <v>2.9499513781125928</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8233833799188957</v>
+        <v>-5.6079301404166539</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44797456778972566</v>
+        <v>3.0050627454325927</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0153759788536076</v>
+        <v>-0.60315466497095138</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0581717091951468</v>
+        <v>-1.1524499478154464</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0139157241949524</v>
+        <v>-0.69012508324343114</v>
       </c>
       <c r="I45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9017910661089226</v>
+        <v>1.7772481510654949</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.88159189806554283</v>
+        <v>-1.3772948254499029</v>
       </c>
       <c r="K45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35369478882144767</v>
+        <v>-2.6820367437024482</v>
       </c>
       <c r="L45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7274870818775105</v>
+        <v>4.0278121411235146</v>
       </c>
       <c r="M45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6565706888413438</v>
+        <v>1.519819020419938E-2</v>
       </c>
       <c r="N45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0749001298391718</v>
+        <v>0.3225459939029971</v>
       </c>
       <c r="O45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3402115627651074</v>
+        <v>3.0434529139142992</v>
       </c>
       <c r="P45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3276420960028528</v>
+        <v>-2.5295560780151098</v>
       </c>
       <c r="Q45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3944924376579342</v>
+        <v>4.0789968329447372</v>
       </c>
       <c r="R45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8111187513387255</v>
+        <v>-2.0872895775787637</v>
       </c>
       <c r="S45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3707782912130191</v>
+        <v>1.2503559086947156</v>
       </c>
       <c r="T45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.987303860369226E-2</v>
+        <v>1.4047363224583171</v>
       </c>
       <c r="U45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0285436486487445</v>
+        <v>-0.95084523201718985</v>
       </c>
       <c r="V45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.56669589081768</v>
+        <v>-1.1474940321552172</v>
       </c>
       <c r="W45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3059508443780738</v>
+        <v>-4.3941134731646239</v>
       </c>
       <c r="X45" s="14">
         <f ca="1">X44+_xlfn.NORM.S.INV(RAND())</f>
-        <v>5.4798493314334813</v>
+        <v>0.31241417836456764</v>
       </c>
       <c r="Y45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5454042891076769</v>
+        <v>-1.9054414278031551</v>
       </c>
       <c r="Z45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6972419666290408E-2</v>
+        <v>1.866642116784728</v>
       </c>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
@@ -30444,99 +30444,99 @@
       </c>
       <c r="C46" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5198141321733285</v>
+        <v>2.6654928135661473</v>
       </c>
       <c r="D46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8904883468601101</v>
+        <v>-4.4957662805295389</v>
       </c>
       <c r="E46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1252189446472336</v>
+        <v>3.2492784431593695</v>
       </c>
       <c r="F46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.782274732108055</v>
+        <v>-5.2519693525958089E-2</v>
       </c>
       <c r="G46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2883206810126993</v>
+        <v>-2.6456369868991541</v>
       </c>
       <c r="H46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73318802103030301</v>
+        <v>-2.7621689484483323</v>
       </c>
       <c r="I46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9618433684828196</v>
+        <v>2.7015853483552599</v>
       </c>
       <c r="J46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69026697124773284</v>
+        <v>-1.2070826436961972</v>
       </c>
       <c r="K46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49471997675485113</v>
+        <v>-3.3394259663376524</v>
       </c>
       <c r="L46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8026091679923297</v>
+        <v>4.886972487896184</v>
       </c>
       <c r="M46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3396609983385208</v>
+        <v>0.53602185218094323</v>
       </c>
       <c r="N46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.2399293822125651</v>
+        <v>1.1945631234937006</v>
       </c>
       <c r="O46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4753477735663196</v>
+        <v>-5.787666178842521E-3</v>
       </c>
       <c r="P46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6522698282474235</v>
+        <v>-3.2079684544292699</v>
       </c>
       <c r="Q46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9376432339374696</v>
+        <v>4.4451305502749801</v>
       </c>
       <c r="R46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0362589272521658</v>
+        <v>-3.5991529741750177</v>
       </c>
       <c r="S46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2725256991768599</v>
+        <v>1.5351994704354033</v>
       </c>
       <c r="T46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1013977311170696E-2</v>
+        <v>1.8747320805406764</v>
       </c>
       <c r="U46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0238408552610414</v>
+        <v>-0.40173749789692892</v>
       </c>
       <c r="V46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67214884649305939</v>
+        <v>-2.9224035658186596</v>
       </c>
       <c r="W46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4182688469987683</v>
+        <v>-5.2807442175642905</v>
       </c>
       <c r="X46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5284415346419156</v>
+        <v>0.95248876257608206</v>
       </c>
       <c r="Y46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2900868940883177</v>
+        <v>-2.1852812355413329</v>
       </c>
       <c r="Z46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11536645089168121</v>
+        <v>1.0226350567119546</v>
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
@@ -30545,99 +30545,99 @@
       </c>
       <c r="C47" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5774913444314214</v>
+        <v>2.0495811391953223</v>
       </c>
       <c r="D47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2080600773030037</v>
+        <v>-3.0487210435060503</v>
       </c>
       <c r="E47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25847293707681251</v>
+        <v>3.0965592082988249</v>
       </c>
       <c r="F47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0794379876850764</v>
+        <v>-0.84423040201503508</v>
       </c>
       <c r="G47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3583156832586587</v>
+        <v>-2.0296601237586378</v>
       </c>
       <c r="H47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24581730483015884</v>
+        <v>-3.8447106073726305</v>
       </c>
       <c r="I47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3703010354472158</v>
+        <v>3.5972821916023698</v>
       </c>
       <c r="J47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3742549226056076</v>
+        <v>-0.95383061593970142</v>
       </c>
       <c r="K47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12924482326318099</v>
+        <v>-2.5962208233660444</v>
       </c>
       <c r="L47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3950019215958278</v>
+        <v>4.8023194255202721</v>
       </c>
       <c r="M47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.39696862607362571</v>
+        <v>0.35534495866298954</v>
       </c>
       <c r="N47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.77787043538495526</v>
+        <v>1.7942677451260156</v>
       </c>
       <c r="O47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3445418171820132</v>
+        <v>0.46507197467176259</v>
       </c>
       <c r="P47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5240288185226594</v>
+        <v>-2.5107129110985413</v>
       </c>
       <c r="Q47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56795134215293697</v>
+        <v>5.2141829712114642</v>
       </c>
       <c r="R47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7082694708558579</v>
+        <v>-1.3461806105698191</v>
       </c>
       <c r="S47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4962429745233097</v>
+        <v>1.9701785651068175</v>
       </c>
       <c r="T47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10279516846263813</v>
+        <v>2.3039598581332057</v>
       </c>
       <c r="U47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.222043468372104</v>
+        <v>-3.1443431016309447</v>
       </c>
       <c r="V47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68046083293539184</v>
+        <v>-2.8160417428421622</v>
       </c>
       <c r="W47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0478251345025145</v>
+        <v>-3.9064565635770574</v>
       </c>
       <c r="X47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5584352900839082</v>
+        <v>3.4353933443534745</v>
       </c>
       <c r="Y47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3536363850093927</v>
+        <v>-1.2310538290027744</v>
       </c>
       <c r="Z47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32170883058602756</v>
+        <v>1.4060585743113223</v>
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.25">
@@ -30646,99 +30646,99 @@
       </c>
       <c r="C48" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9158046986032016</v>
+        <v>2.9268824239740785</v>
       </c>
       <c r="D48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5339119093739946</v>
+        <v>-5.1409486571274758</v>
       </c>
       <c r="E48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50342374296573589</v>
+        <v>3.9377471153695636</v>
       </c>
       <c r="F48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9558922901136295</v>
+        <v>-1.4527406394825402</v>
       </c>
       <c r="G48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3591443809927566</v>
+        <v>-1.1945173109247169</v>
       </c>
       <c r="H48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0305239556369583</v>
+        <v>-3.4642005291053142</v>
       </c>
       <c r="I48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0321788451313134</v>
+        <v>3.7070224032880339</v>
       </c>
       <c r="J48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54436714613058512</v>
+        <v>0.52383821164743094</v>
       </c>
       <c r="K48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35949831273787058</v>
+        <v>-1.3396859916333548</v>
       </c>
       <c r="L48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6864830651862954</v>
+        <v>4.3401263239061709</v>
       </c>
       <c r="M48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.55909571817017156</v>
+        <v>0.62215071815322021</v>
       </c>
       <c r="N48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1450194548808994</v>
+        <v>2.2663311057807749</v>
       </c>
       <c r="O48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.476387136382932</v>
+        <v>2.0717100463185507</v>
       </c>
       <c r="P48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2271214347906207</v>
+        <v>-0.84664327363379677</v>
       </c>
       <c r="Q48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3477445344682346</v>
+        <v>4.0033431079786723</v>
       </c>
       <c r="R48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6358926114601831</v>
+        <v>-1.9914624588176084</v>
       </c>
       <c r="S48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7995457502100649</v>
+        <v>2.5851848526469783</v>
       </c>
       <c r="T48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85607586814233749</v>
+        <v>1.012995115839211</v>
       </c>
       <c r="U48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1141912300046841</v>
+        <v>-3.7290011945438795</v>
       </c>
       <c r="V48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31925524238590341</v>
+        <v>-3.7684084563629794</v>
       </c>
       <c r="W48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5656420731144935</v>
+        <v>-4.0273645807370331</v>
       </c>
       <c r="X48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9453507355260031</v>
+        <v>4.0281575190469647</v>
       </c>
       <c r="Y48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8793758383681163</v>
+        <v>-4.0012714548884629</v>
       </c>
       <c r="Z48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46585686698489948</v>
+        <v>2.4903793522941156</v>
       </c>
     </row>
   </sheetData>
@@ -30953,7 +30953,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CACF4F1-1BC2-E541-BC3C-DB0B9D24A74D}">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B2:C13"/>
@@ -31193,8 +31193,36 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7259EF5-104F-664A-8276-7E9D6DE86674}">
+  <sheetPr codeName="Sheet27">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6F2DE0CD-7F2A-0749-9016-04151EAD4471}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F245030C-CE66-0A42-953D-58336E3DA15C}">
-  <sheetPr>
+  <sheetPr codeName="Sheet26">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -31210,7 +31238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F1D69-E77D-554B-88AB-28AA41149712}">
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FF7030A0"/>
@@ -31390,7 +31418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A19A5-2B87-B34D-A000-9EDAF870205B}">
   <sheetPr codeName="Sheet19">
     <tabColor rgb="FF7030A0"/>
@@ -31724,7 +31752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFFBCF3-E0DD-4843-8F8D-0FBD21392101}">
   <sheetPr codeName="Sheet20">
     <tabColor rgb="FF7030A0"/>
@@ -32009,7 +32037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8E64D4-6792-2C4A-9C76-EA34CCB90981}">
   <sheetPr codeName="Sheet21">
     <tabColor rgb="FF7030A0"/>
@@ -32504,7 +32532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB00934F-94FC-2A4A-B536-DA0F4E3171EC}">
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FF7030A0"/>
@@ -33930,37 +33958,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7259EF5-104F-664A-8276-7E9D6DE86674}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6F2DE0CD-7F2A-0749-9016-04151EAD4471}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C209E1D5-1B94-E247-A8ED-1A6682ECB48C}">
-  <sheetPr>
+  <sheetPr codeName="Sheet23">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B2:C17"/>
@@ -34039,7 +34039,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7CBF7-DB28-CF47-86D2-FECA988B8DF4}">
-  <sheetPr>
+  <sheetPr codeName="Sheet24">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -34058,7 +34058,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E329E15-55E5-3F49-83E1-B4F3A4E424C7}">
-  <sheetPr>
+  <sheetPr codeName="Sheet25">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1"/>
